--- a/books.xlsx
+++ b/books.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\4th_Year\BE_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7E3315-6B97-443F-936A-707268821835}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFE70AF-C099-48A5-840E-37DBE586DE5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{4301CDC6-6E53-42CF-BD4B-3324FB65C5FB}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="128">
   <si>
     <t>Accn#</t>
   </si>
@@ -40,12 +40,6 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Copies</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
     <t>007581</t>
   </si>
   <si>
@@ -212,6 +206,213 @@
   </si>
   <si>
     <t>Sr. No</t>
+  </si>
+  <si>
+    <t>7386</t>
+  </si>
+  <si>
+    <t>023613</t>
+  </si>
+  <si>
+    <t>024094</t>
+  </si>
+  <si>
+    <t>022625</t>
+  </si>
+  <si>
+    <t>006248</t>
+  </si>
+  <si>
+    <t>G02457</t>
+  </si>
+  <si>
+    <t>G02458</t>
+  </si>
+  <si>
+    <t>G02503</t>
+  </si>
+  <si>
+    <t>G02461</t>
+  </si>
+  <si>
+    <t>006614</t>
+  </si>
+  <si>
+    <t>006615</t>
+  </si>
+  <si>
+    <t>023292</t>
+  </si>
+  <si>
+    <t>010047</t>
+  </si>
+  <si>
+    <t>024086</t>
+  </si>
+  <si>
+    <t>024099</t>
+  </si>
+  <si>
+    <t>024106</t>
+  </si>
+  <si>
+    <t>006610</t>
+  </si>
+  <si>
+    <t>024104</t>
+  </si>
+  <si>
+    <t>G02333</t>
+  </si>
+  <si>
+    <t>007740</t>
+  </si>
+  <si>
+    <t>007741</t>
+  </si>
+  <si>
+    <t>G02372</t>
+  </si>
+  <si>
+    <t>G02463</t>
+  </si>
+  <si>
+    <t>024140</t>
+  </si>
+  <si>
+    <t>G04479</t>
+  </si>
+  <si>
+    <t>024149</t>
+  </si>
+  <si>
+    <t>G04478</t>
+  </si>
+  <si>
+    <t>023313</t>
+  </si>
+  <si>
+    <t>008894</t>
+  </si>
+  <si>
+    <t>024090</t>
+  </si>
+  <si>
+    <t>G02455</t>
+  </si>
+  <si>
+    <t>024133</t>
+  </si>
+  <si>
+    <t>Minoli, D.</t>
+  </si>
+  <si>
+    <t>Mitchell, R.</t>
+  </si>
+  <si>
+    <t>Internet and internet engineering</t>
+  </si>
+  <si>
+    <t>Building the internet of things with IPv6 and MIPv6: the evolving world of M2M communications</t>
+  </si>
+  <si>
+    <t>Web scraping with Python: collecting more data from the modern web</t>
+  </si>
+  <si>
+    <t>Foundations of Atlas: rapid Ajax development with ASP.NET 2.0</t>
+  </si>
+  <si>
+    <t>Upgrading and repairing PCs, Ed.10</t>
+  </si>
+  <si>
+    <t>Introducting systems analysis and design, Vol.1</t>
+  </si>
+  <si>
+    <t>Introducting system analysis and design,Vol.2</t>
+  </si>
+  <si>
+    <t>Java 2: the complete reference,Ed3</t>
+  </si>
+  <si>
+    <t>Principles of interactive computer graphics, Ed.2</t>
+  </si>
+  <si>
+    <t>Introduction to computers, Ed.4</t>
+  </si>
+  <si>
+    <t>Cryptography and information security, Ed.2</t>
+  </si>
+  <si>
+    <t>EJB 3 in action</t>
+  </si>
+  <si>
+    <t>Principles of multimedia, Ed.2</t>
+  </si>
+  <si>
+    <t>Deep learning: a practitioner's approach</t>
+  </si>
+  <si>
+    <t>Internet of things: enabling technologies, platforms and usse cases</t>
+  </si>
+  <si>
+    <t>Fundamentals of computers, Ed.3</t>
+  </si>
+  <si>
+    <t>Practical cyber forensics: an incident-based approach to forensic investigations</t>
+  </si>
+  <si>
+    <t>Discrete mathematics and its applications,  Ed.5</t>
+  </si>
+  <si>
+    <t>COBOL programming including MS COBOL and COBOL-85, Ed.2</t>
+  </si>
+  <si>
+    <t>Cobol programming: including MS cobol and cobol -85, Ed.2</t>
+  </si>
+  <si>
+    <t>Cobol programming</t>
+  </si>
+  <si>
+    <t>Mining the social web, Ed.3</t>
+  </si>
+  <si>
+    <t>Programming the world wide web, Ed.8</t>
+  </si>
+  <si>
+    <t>Understanding virtual reality: interface, application and design, Ed.2</t>
+  </si>
+  <si>
+    <t>Database system concepts, Ed.7</t>
+  </si>
+  <si>
+    <t>Design and analysis of algorithms</t>
+  </si>
+  <si>
+    <t>Multimedia fundamentals v.1: media coding and content processing</t>
+  </si>
+  <si>
+    <t>Computer vision: algorithms and applications, Ed.2</t>
+  </si>
+  <si>
+    <t>Unix utilities</t>
+  </si>
+  <si>
+    <t>Social media mining: an introduction</t>
+  </si>
+  <si>
+    <t>Steinmetz, R.</t>
+  </si>
+  <si>
+    <t>Szeliski, R.</t>
+  </si>
+  <si>
+    <t>Tare, R.S.</t>
+  </si>
+  <si>
+    <t>Zafarani, R.</t>
+  </si>
+  <si>
+    <t>Issued</t>
   </si>
 </sst>
 </file>
@@ -255,20 +456,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -586,25 +781,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64265063-9C87-4FBB-B654-2B501B1D0D3C}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="8.88671875" style="4"/>
     <col min="2" max="2" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="4" width="62.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="6"/>
-    <col min="6" max="6" width="8.88671875" style="3"/>
+    <col min="3" max="3" width="28.88671875" customWidth="1"/>
+    <col min="4" max="4" width="89.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>60</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -615,532 +808,1053 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <f>ROW(A1)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <f t="shared" ref="A3:A59" si="0">ROW(A2)</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="6">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E4" s="6">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="6">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E8" s="6">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4">
+      <c r="B19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" t="s">
+        <v>105</v>
+      </c>
+      <c r="E41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" t="s">
+        <v>108</v>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" t="s">
+        <v>109</v>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="6">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="6">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="6">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="6">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="6">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="6">
-        <v>1</v>
-      </c>
-      <c r="F14" s="4">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="6">
-        <v>1</v>
-      </c>
-      <c r="F15" s="4">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="6">
-        <v>1</v>
-      </c>
-      <c r="F16" s="4">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="6">
-        <v>1</v>
-      </c>
-      <c r="F17" s="4">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="6">
-        <v>1</v>
-      </c>
-      <c r="F18" s="4">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="6">
-        <v>1</v>
-      </c>
-      <c r="F19" s="4">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="6">
-        <v>1</v>
-      </c>
-      <c r="F20" s="4">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="6">
-        <v>1</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1</v>
-      </c>
-      <c r="F22" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="C23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="B47" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" t="s">
+        <v>111</v>
+      </c>
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="E23" s="6">
-        <v>1</v>
-      </c>
-      <c r="F23" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="B48" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" t="s">
+        <v>111</v>
+      </c>
+      <c r="E48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="C24" t="s">
+      <c r="B49" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" t="s">
+        <v>112</v>
+      </c>
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="D24" t="s">
+      <c r="B50" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" t="s">
+        <v>92</v>
+      </c>
+      <c r="D50" t="s">
+        <v>113</v>
+      </c>
+      <c r="E50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="E24" s="6">
-        <v>1</v>
-      </c>
-      <c r="F24" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="B51" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" t="s">
+        <v>92</v>
+      </c>
+      <c r="D51" t="s">
+        <v>114</v>
+      </c>
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B52" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" t="s">
+        <v>115</v>
+      </c>
+      <c r="E52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="D25" t="s">
+      <c r="B53" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" t="s">
+        <v>116</v>
+      </c>
+      <c r="E53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="E25" s="6">
-        <v>1</v>
-      </c>
-      <c r="F25" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="B54" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" t="s">
+        <v>92</v>
+      </c>
+      <c r="D54" t="s">
+        <v>117</v>
+      </c>
+      <c r="E54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="C26" t="s">
+      <c r="B55" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" t="s">
+        <v>92</v>
+      </c>
+      <c r="D55" t="s">
+        <v>118</v>
+      </c>
+      <c r="E55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="D26" t="s">
+      <c r="B56" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C56" t="s">
+        <v>123</v>
+      </c>
+      <c r="D56" t="s">
+        <v>119</v>
+      </c>
+      <c r="E56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="E26" s="6">
-        <v>1</v>
-      </c>
-      <c r="F26" s="4">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="B57" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C57" t="s">
+        <v>124</v>
+      </c>
+      <c r="D57" t="s">
+        <v>120</v>
+      </c>
+      <c r="E57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="C27" t="s">
+      <c r="B58" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" t="s">
+        <v>125</v>
+      </c>
+      <c r="D58" t="s">
+        <v>121</v>
+      </c>
+      <c r="E58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="4">
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="D27" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="6">
-        <v>1</v>
-      </c>
-      <c r="F27" s="4">
-        <v>295</v>
+      <c r="B59" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C59" t="s">
+        <v>126</v>
+      </c>
+      <c r="D59" t="s">
+        <v>122</v>
+      </c>
+      <c r="E59" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
